--- a/UygunOlmayan/Dosyalar/UygunOlmayanUrunRaporu.xlsx
+++ b/UygunOlmayan/Dosyalar/UygunOlmayanUrunRaporu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mert.karaomer\Desktop\UygunOlmayan1\UygunOlmayan\UygunOlmayan\Dosyalar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A16A6C-0F12-476F-99DF-236B8A1D206E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31D78CD-A95C-40FF-B0F6-C454EF2CE7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FR.87.01 (R1)" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,6 @@
     <t>DEĞERLENDİRME NOTLARI / SONUÇ:</t>
   </si>
   <si>
-    <t>Düzeltici Faaliyet Gerekiyor</t>
-  </si>
-  <si>
     <t>Düzeltici Faaliyet Tarih ve No:</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>FR.87.01 (R1)</t>
+  </si>
+  <si>
+    <t>Düzeltici Faaliyet Gerekiyor:</t>
   </si>
 </sst>
 </file>
@@ -277,22 +277,6 @@
       <charset val="162"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial Tur"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Tur"/>
-      <charset val="162"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -306,6 +290,20 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Tur"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial Tur"/>
+      <charset val="162"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1062,18 +1060,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1104,15 +1090,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1140,15 +1117,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1285,6 +1253,36 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1306,104 +1304,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="403860" y="2156460"/>
-          <a:ext cx="129540" cy="99060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4251960" y="2156460"/>
-          <a:ext cx="137160" cy="106680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1553,55 +1453,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1958340" y="10401300"/>
-          <a:ext cx="129540" cy="121920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1642,55 +1493,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2026920" y="2141220"/>
-          <a:ext cx="129540" cy="106680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2213,55 +2015,6 @@
         <a:xfrm>
           <a:off x="4632960" y="8930640"/>
           <a:ext cx="144780" cy="121920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="6019800" y="2141220"/>
-          <a:ext cx="144780" cy="106680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2978,7 +2731,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:I4"/>
+      <selection activeCell="A46" sqref="A46:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2998,140 +2751,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="119"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="109"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="112"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="125"/>
-      <c r="L3" s="126"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="116"/>
     </row>
     <row r="4" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115" t="s">
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115" t="s">
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="106"/>
     </row>
     <row r="5" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115" t="s">
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115" t="s">
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="116"/>
+      <c r="L5" s="106"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="100"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90"/>
     </row>
     <row r="7" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="100"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="90"/>
     </row>
     <row r="8" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="103"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -3166,148 +2919,148 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="106"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="96"/>
     </row>
     <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="110" t="s">
+      <c r="E12" s="101"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="111"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="88" t="s">
+      <c r="H12" s="101"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="88"/>
-      <c r="L12" s="113"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="103"/>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87" t="s">
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="87" t="s">
+      <c r="E13" s="78"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="90" t="s">
+      <c r="H13" s="78"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="82"/>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="87" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="94" t="s">
+      <c r="E14" s="78"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="95"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="95" t="s">
+      <c r="H14" s="85"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="95"/>
-      <c r="L14" s="97"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="87"/>
     </row>
     <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="77"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
     </row>
     <row r="16" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="80"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="120"/>
     </row>
     <row r="17" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="83"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="73"/>
     </row>
     <row r="18" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="73"/>
     </row>
     <row r="19" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
@@ -3338,34 +3091,34 @@
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="68"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="126"/>
     </row>
     <row r="22" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="71"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="64"/>
     </row>
     <row r="23" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
@@ -3396,52 +3149,52 @@
       <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="57"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="60"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64" t="s">
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="65"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="61"/>
     </row>
     <row r="28" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
@@ -3458,20 +3211,20 @@
       <c r="L28" s="51"/>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="54"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="123"/>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
@@ -3713,7 +3466,7 @@
     </row>
     <row r="46" spans="1:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -3721,7 +3474,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -3731,7 +3484,7 @@
     </row>
     <row r="47" spans="1:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -3747,7 +3500,7 @@
     </row>
     <row r="48" spans="1:12" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -3763,7 +3516,7 @@
     </row>
     <row r="49" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -3772,7 +3525,7 @@
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
       <c r="H49" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
@@ -3781,7 +3534,7 @@
     </row>
     <row r="50" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
